--- a/src/attributions/attributions_ig_traj_474.xlsx
+++ b/src/attributions/attributions_ig_traj_474.xlsx
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.2682725975269131</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1386650886343092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01982438388420685</v>
+        <v>-0.01977690095418631</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1025,79 +1025,79 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06508066746716105</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.09038262166248211</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.3341528273191412</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2242426148807415</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01502876594487122</v>
+        <v>-0.05430119732885804</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1492619392802456</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.1996674283444208</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.108529972780371</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01776062756885265</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03225223072518785</v>
+        <v>0.01574640515178227</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02566528074398913</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>-0.04408700508305108</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.07341657446626589</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006563003810265653</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02600419115517948</v>
+        <v>-0.0845517747293146</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1106,52 +1106,52 @@
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.01135726112072851</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>-0.02307591564958476</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.05213442257973992</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.05159640052702726</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.06117644198859634</v>
+        <v>-0.04302272431522494</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.009109228709449777</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0.03853407933229323</v>
       </c>
       <c r="AT2" t="n">
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.4896695794239113</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1694082352105409</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.009366631775475111</v>
+        <v>0.2015774289275474</v>
       </c>
       <c r="AY2" t="n">
         <v>-0</v>
@@ -1160,133 +1160,133 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.2146347148415211</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0.1371293976112065</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.04229421105866791</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0470169441014661</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.05914436792314954</v>
+        <v>-0.07405771232252568</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.02622934179457106</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0.09263424435346074</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.004804252352354105</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.05871430146460085</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
         <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.06605507471478221</v>
+        <v>0.2438068078425708</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.09315952957513779</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0.06005293806716802</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.2513986392413844</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.08854619092256323</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0001619335416767622</v>
+        <v>0.03835553312086414</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.05457188827371059</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>-0.02427548558159727</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1144433392113149</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.07048006847668724</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.0006845612437785282</v>
+        <v>-0.0004342885424829577</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.04362769237555157</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0.08158791307144295</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.02622854807290311</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.02162281026354936</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.05085278983425406</v>
+        <v>-0.06645998200639289</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
@@ -1295,79 +1295,79 @@
         <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0291371622678087</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>0.0002912287815524991</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.1166616526597946</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.06965941049989383</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.01977301850558431</v>
+        <v>-0.006549985320306368</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.04007789622630313</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>0.0616466481390015</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.1633494067087778</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.02054083070073472</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.08605663720811885</v>
+        <v>0.07730767849089043</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.06387669791069175</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>0.05628482115492958</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.04279163045055343</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.02517606839132471</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.002579658263637321</v>
+        <v>-0.06709745267918969</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1376,160 +1376,160 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.01864307631971888</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.02626663056452299</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0.1866076604177509</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.01014080396813794</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
         <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02625058333678141</v>
+        <v>0.004797424110921674</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.07856437907330813</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>-0.02499233504417023</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.07684417826424668</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.05546055804855338</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.05199630502552581</v>
+        <v>0.05105118437940637</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06142572289865238</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.1189827385763879</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.05412685492463296</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.007417419948413688</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.05299103465072511</v>
+        <v>-0.03541208643356927</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.0187105258998411</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0.03718760383942243</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.1223511697837261</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.07505553736298864</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00918077962351518</v>
+        <v>0.003862346780378521</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.04062957270414179</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0.05646652095331872</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.01018497391528004</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.09562316002403336</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.005467761348121402</v>
+        <v>-0.05425726596268491</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.007663763950250513</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0.02597636469465123</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.00770393549181855</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.02373499244778552</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.0007422558673745906</v>
+        <v>0.007483873043272324</v>
       </c>
       <c r="FU2" t="n">
         <v>-0</v>
@@ -1538,37 +1538,37 @@
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02355923047412995</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>-0.03320812069304872</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.08406264976535731</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.03261469682466055</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
         <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.09186195156760721</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0.04234285774042472</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2714,22 +2714,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.329739404496266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2141756568043328</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03809377132650447</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04580312181968296</v>
+        <v>-0.03504119339422981</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.1214288396130512</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
@@ -2741,22 +2741,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.3412800149898095</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3348434888236164</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.07599785898924982</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04426678380656013</v>
+        <v>-0.03264159447913256</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0.1524622182915165</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,28 +2765,28 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1396134035405333</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04201715606456091</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05143467788820913</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07740523110616128</v>
+        <v>0.121758370148059</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0.04321609503297651</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.1249471027082217</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.01853681226060998</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.01142505441191472</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.06431319263393964</v>
+        <v>-0.09290028588372584</v>
       </c>
       <c r="AG5" t="n">
         <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>-0.009551449171841836</v>
       </c>
       <c r="AI5" t="n">
         <v>-0</v>
@@ -2822,79 +2822,79 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.05304893367817377</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.05288396194556585</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.009361061722020197</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.04866863975039878</v>
+        <v>0.02481576952397785</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>-0.03990594077420406</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.4300626958318378</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1804610265933261</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.03280128459256195</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.06016046992167993</v>
+        <v>0.1316586015883016</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>-0.2367618562604226</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.05784729436501616</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.05923952203922551</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.03817992721364156</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.08003473129693169</v>
+        <v>-0.09655859131166444</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>0.00491563656916791</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
@@ -2903,79 +2903,79 @@
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>-0.02380959970575595</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.1275603588831519</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.04181491525263376</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.1082547763182545</v>
+        <v>0.09058750890308123</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0.08088684170115074</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1695629994592913</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.08420481467651961</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.02399385084964938</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.02014209483424276</v>
+        <v>0.07008340349157055</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0.09825368390091734</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.1188928319494688</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.07707123834667458</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.02666938089097232</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.01234174600524462</v>
+        <v>0.006482807343268096</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0.06010730973889362</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,22 +2984,22 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.02166201910361254</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.04709722992097023</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.02176014020892746</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.01877914456214199</v>
+        <v>-0.08705587596693716</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>-0.009381210141514478</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
@@ -3008,28 +3008,28 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.1109536867465582</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.06645529341775273</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01697084057491495</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.009706620419377629</v>
+        <v>-0.02108524125789343</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0.07456189657709507</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,22 +3038,22 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.1268480063285294</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0.07273980130769835</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.002960036514178868</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0314379788219898</v>
+        <v>0.03279659136603739</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0</v>
+        <v>0.02829375436085453</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
@@ -3062,220 +3062,220 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.04475581583813636</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.03399569362761126</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0.009860563251828202</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.0587587757710746</v>
+        <v>-0.0213358570801968</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>0.01252080455758541</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.1441919400203852</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.0486542564526604</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01349416870626751</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.005537445644703455</v>
+        <v>-0.02075014540769405</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>0.02893493117181658</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.04865431621836851</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.08410311023049326</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.07049080634019392</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01848381113854295</v>
+        <v>0.01394573898531674</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>0.0882705186318011</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.08398383984308844</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.01700521378521888</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.007821643103260976</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.02514136008192262</v>
+        <v>-0.06764021736642659</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0.05318502920887613</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.1157774992794783</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.06798038890232755</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.02220732980016597</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.004955050700824709</v>
+        <v>-0.02892773787120006</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0.07841461717586996</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.0006104521923067727</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0816906582814185</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.005308967756158805</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.01461305673498367</v>
+        <v>-0.03064759233492155</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0.01270534177148304</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.01185681879651032</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.0001917420459728009</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.02151582464469188</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.003682717858389586</v>
+        <v>0.003182770382763528</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0.05014367255667615</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.05286641408818149</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.07098374571945967</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.03607941087804628</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0.01026080957267931</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -3849,52 +3849,52 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9478562641462973</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.5091494480061397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7211360161745264</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>-0.3485301208031067</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3011894628141215</v>
+        <v>-0.0284727737155516</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.938738740683989</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.4912127847526005</v>
       </c>
       <c r="L7" t="n">
-        <v>1.036540446056299</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>-0.3587260694078647</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03017021442831415</v>
+        <v>-0.09095316956961562</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06177588096112604</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.2084676087803331</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2259515343138913</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>-0.01990441044588038</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1610782928059889</v>
+        <v>0.1507249135335912</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
@@ -3930,19 +3930,19 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.04961911039197672</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1343009941599115</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.1331839476085109</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.002073694856067761</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.1942063871257725</v>
+        <v>-0.02020560601660971</v>
       </c>
       <c r="AG7" t="n">
         <v>-0</v>
@@ -3951,25 +3951,25 @@
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.2290482946588218</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.02014367858576904</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1489850284690941</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.1029768918859508</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.004841006855724985</v>
+        <v>-0.06786753816092971</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3978,25 +3978,25 @@
         <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.738951119062991</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.5691320961418292</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7750030277527015</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.08734423935739968</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1872401880617995</v>
+        <v>0.2112377287974646</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
@@ -4011,19 +4011,19 @@
         <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.1269160896292647</v>
+        <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.04692878462369308</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.114024299490104</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.1061724320203671</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.3223692902635472</v>
+        <v>-0.1510069363401169</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4032,28 +4032,28 @@
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1829815155210679</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.04975314654346591</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.3009653781965429</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.07218683978534621</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.3464106871879133</v>
+        <v>0.2159390774979577</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,22 +4062,22 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.5622622517538405</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.2324523010596126</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.3584042111542675</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>-0.001483405045776278</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.0800617217097622</v>
+        <v>0.118056094124087</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
@@ -4089,49 +4089,49 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.3189478216665221</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>-0.1498218073074595</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.2055682544933779</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.04904232665161382</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.05390872535211648</v>
+        <v>-0.03456274985344952</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.04869991682303042</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>0.003804926626583998</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.07900357433477051</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.2024311154284203</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.2307995872807864</v>
+        <v>-0.1627437570133688</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4140,79 +4140,79 @@
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.2715233302669099</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.1413390853596127</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.1827482657066967</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.08896554690536274</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.174529247162014</v>
+        <v>-0.0318980974198192</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.07990975853318934</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0</v>
+        <v>-0.1487632771264239</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.3483067415439629</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.01139777975130363</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.04224735694318248</v>
+        <v>-0.02053697068613517</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.1272527706088358</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>-0.009796453535939539</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.1307709683591526</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.1044470792762514</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.1546475317294885</v>
+        <v>-0.08941235419648261</v>
       </c>
       <c r="DS7" t="n">
         <v>0</v>
@@ -4221,25 +4221,25 @@
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0.01790487192206669</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.06933193973331173</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.04929743899003654</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.001030245161517904</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.08934882235056982</v>
+        <v>-0.02605262215631136</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,28 +4248,28 @@
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.4473820604764556</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.1393556000527512</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.2414560084396395</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.07232208030604852</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.1050981572365826</v>
+        <v>0.09948211957468903</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
@@ -4278,76 +4278,76 @@
         <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.07464245330437871</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0</v>
+        <v>-0.1379944878047723</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.1928594027147276</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.07432532504634967</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1782795475424932</v>
+        <v>-0.01306958734054653</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.3088137309640618</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.1429284511864807</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.2013837001915885</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>0.05728574452149764</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.1358500337661299</v>
+        <v>-0.03616775326703744</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.2696877828906835</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.01709616414805581</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.1564381678500565</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>0.1182627534924378</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.09682993717452049</v>
+        <v>-0.007539325529760442</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
@@ -4359,22 +4359,22 @@
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.1172503091907089</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.007155240853427771</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.01005820773919461</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.04404318752588997</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.009101221632152424</v>
+        <v>-0.0009471295030820466</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.005244542711554466</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.02108150734070569</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.1512316221836779</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.1092687541328923</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,100 +4421,100 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.2150578350293629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5674355570293766</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1226897272827189</v>
+        <v>-0.01645340715224021</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.1308947601209474</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2012508505784192</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1909418860334726</v>
       </c>
       <c r="L8" t="n">
-        <v>0.695083322767188</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.009091993035139358</v>
+        <v>-0.0140178054614115</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.196740857338441</v>
       </c>
       <c r="P8" t="n">
         <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.316950045614733</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0360417751128238</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07884247605268768</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002510569459167852</v>
+        <v>-0.02772172389922653</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.01542599144316571</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.03485517089281602</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.04165900070002719</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.09671328123857117</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01506040396557152</v>
+        <v>0.02690986171699945</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0.008944041364029333</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -4523,79 +4523,79 @@
         <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1244574692108944</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0181642336962472</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1401511332466988</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.03151618597865235</v>
+        <v>-0.02207058717779127</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>-0.04296436993933404</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>-0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.01461476144592577</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1915880995013701</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.3887386951451044</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.04019571281903551</v>
+        <v>-0.04081903667576706</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>-0.1304412385956447</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.1369956349345517</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0634589460090953</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.1636872897129705</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.1125746952254377</v>
+        <v>-0.02722480978178</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.03547320703105214</v>
       </c>
       <c r="BI8" t="n">
         <v>-0</v>
@@ -4604,79 +4604,79 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.03916384355098199</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.07218930227266149</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.2007147139191779</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.1433874101281725</v>
+        <v>0.0225240198233073</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.01887973810986917</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.05735226884864655</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.08238613679381851</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.2478451835490169</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.08972650113628337</v>
+        <v>-0.01288587219781652</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0.03874005323164887</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0.114680563571337</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.05372682999813318</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.1561583258325407</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.01340658851579029</v>
+        <v>-0.01059554610538408</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.04844803970177665</v>
       </c>
       <c r="CJ8" t="n">
         <v>-0</v>
@@ -4685,25 +4685,25 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.05916624807928975</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.01250994836524671</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.04539875293799055</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.124788861956548</v>
+        <v>0.01171613527048285</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>-0.02495690536156621</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
@@ -4712,25 +4712,25 @@
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0.1062530175469275</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>-0.04238141544546808</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.1454058186415662</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.05924028306666084</v>
+        <v>-0.01113765369573175</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.04947434628978348</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -4739,106 +4739,106 @@
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.06860532835025744</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.055801149694939</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.1191267202590586</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.02519593247503998</v>
+        <v>0.02681918981817489</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>0.0006365632438627889</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0.01583177944563752</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.02621135989564245</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.01284454231412657</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.04604764963168939</v>
+        <v>0.009502134770895228</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>0.002373259151957591</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0.07959597356809327</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.03811624550060586</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0911222865080188</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.008410725675280437</v>
+        <v>-0.02444706646769102</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>-0.03367442617572289</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0.03481769363993965</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.03500160317244068</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.1735630295930548</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.06255714035570556</v>
+        <v>0.005444306543112933</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0</v>
+        <v>0.03097397112601947</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -4847,142 +4847,142 @@
         <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.006690472638520731</v>
+        <v>-0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>-0</v>
+        <v>-0.01866517939537641</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.03599841694361385</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.07310003540758443</v>
+        <v>-0.0162777098814338</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>0.03302400343697724</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.1409697497334651</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
         <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.04317217574984447</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.1581843252094099</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.04006374247740463</v>
+        <v>-0.008032097811297795</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.04924469714554379</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.07401806335156907</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.003723148998297417</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.1416022742761164</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.1190080665340394</v>
+        <v>-0.03569640809223598</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>0.03829219061315533</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.029213795885745</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.005141564379836466</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.02818775307605668</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.01397841768185515</v>
+        <v>0.00359831427893568</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0.04476079188392427</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.1095634355043212</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.01196289187896574</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.123750819780867</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.03766721033446196</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.09008567481663837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5044,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -5260,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
@@ -5314,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
         <v>0</v>
@@ -5556,82 +5556,82 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.5505575158302849</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2018006827120804</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0122877710984025</v>
+        <v>-0.1869647792384005</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02234678251371627</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.5149652057416819</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.4641490249175224</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2352633401647981</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01274352431385686</v>
+        <v>-0.3729547018491681</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04492597606326817</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0.8965998008890421</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.3027265110431657</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01432351814134981</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.03664165695046768</v>
+        <v>0.3098495136277547</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.03362241570672989</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0.1606343718799428</v>
       </c>
       <c r="AA10" t="n">
         <v>-0</v>
@@ -5640,214 +5640,214 @@
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.2627745170575702</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.03273403968535121</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03885548241343722</v>
+        <v>-0.1669092736456806</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0004102034980561544</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>-0.2909016099233705</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.08214723114619681</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.04596524333885271</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01680232624962732</v>
+        <v>-0.01021063278407631</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01147539214125742</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0.1838548351434858</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>1.078915996136951</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1141403235127333</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.03712428684317905</v>
+        <v>0.5258727655075109</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.02733044511353811</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>-0.06336259656361527</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.01991134648274931</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.07797207091644241</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.04603399073416377</v>
+        <v>-0.3505226520307421</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.01427153751336259</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0.2956907425479152</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.5895519703804922</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.05290096323516105</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.01564070006063055</v>
+        <v>0.790217025246846</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.009562049597970284</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0</v>
+        <v>0.3115311776689687</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.4384984702045389</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.07812460620239825</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01732372001114445</v>
+        <v>0.2468215866436242</v>
       </c>
       <c r="BZ10" t="n">
         <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.03237166277678596</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0.02024926544918096</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.1701607192030334</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.0508688906690034</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.002468130066821974</v>
+        <v>0.009825753252642134</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.02007031358499807</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>0.222154433126905</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.4769470577926986</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.009322243393287723</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.03633811252406126</v>
+        <v>-0.5214431199799255</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.02632185639008957</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>-0.1870520545733548</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
@@ -5856,52 +5856,52 @@
         <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.1266707376238884</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.04954344077491754</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02347206638411177</v>
+        <v>0.03455546703122087</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.01494495021674351</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0.1090490024883095</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.6576932160575604</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.03666681273294136</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.06876161945174744</v>
+        <v>0.08011393211851435</v>
       </c>
       <c r="DJ10" t="n">
         <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.01150106918405685</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0</v>
+        <v>-0.003695773152336445</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
@@ -5910,106 +5910,106 @@
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.1654201834111794</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0.01659936130903055</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.01839576174864182</v>
+        <v>-0.07160916019072465</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0.03120290734217578</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>0.1728890748335379</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.02467225172215434</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0313915690139191</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.0001920487145129813</v>
+        <v>-0.06033550930618397</v>
       </c>
       <c r="EB10" t="n">
         <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.03077787501589015</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0</v>
+        <v>-0.1901833851573926</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.08248764377743978</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.09567199508171872</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.006080744765746961</v>
+        <v>0.03422058370873715</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.01750081854265693</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>0.2291878049697553</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.06178806831947702</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.01615342657170405</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.04709975073117317</v>
+        <v>0.1521157893971231</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.005739527808095585</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0</v>
+        <v>-0.02857731391542834</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,91 +6018,91 @@
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.1155600544641937</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.04896599062578967</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0061728631059297</v>
+        <v>0.04580836798167895</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.01099141641332823</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>0.2046903393653886</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.06857136971603112</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.01641198044281841</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0118466510401117</v>
+        <v>-0.1601554278660176</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.01536952150060743</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0.06975352473871771</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>0.01462485073293411</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.005901205343492089</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.006127709436009644</v>
+        <v>0.04005883588233029</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.008022359926661936</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0.1814698235212332</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.3608240616142978</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.004481059773931678</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
         <v>-0</v>
@@ -6114,36 +6114,36 @@
         <v>0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.002213530536025415</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0.3300197345782492</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0.3201069958423193</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3668272641483462</v>
+        <v>0.6320091514483427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4378313281802763</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02279909585243919</v>
+        <v>-0.2358875639782447</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6152,22 +6152,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0.2234377661255625</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.342691862841511</v>
+        <v>0.5148734774393224</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4954449608721851</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04393699081419464</v>
+        <v>-0.5117548087763245</v>
       </c>
       <c r="O11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -6179,25 +6179,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.02206938997238747</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2022520857015243</v>
+        <v>0.3670833177358572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1530699175711412</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.08036698783655501</v>
+        <v>0.1794759103722527</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -6206,19 +6206,19 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0.02078766065777697</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1179321712424459</v>
+        <v>0.1922671714228789</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.1164835928550853</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.01993717805347162</v>
+        <v>-0.07866378253460937</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -6227,25 +6227,25 @@
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-0.1146266779855946</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.09063020616906026</v>
+        <v>0.2257917011179836</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0713361415228943</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.02437681952161552</v>
+        <v>0.01182773443055132</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -6254,52 +6254,52 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.2300887619716731</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.2509321760014282</v>
+        <v>0.7732805470806201</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.109238508607305</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1665804312021372</v>
+        <v>0.364409427006545</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>-0.212229323468509</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.1582554970233495</v>
+        <v>-0.05439842369843822</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.1765429128058198</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.1934838011655216</v>
+        <v>-0.4294288674343181</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -6314,46 +6314,46 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>-0.09121987303078703</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.04109514418523671</v>
+        <v>0.1449943613813964</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.1529243705869294</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
         <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.1003646602478414</v>
+        <v>0.4038474477770921</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>0.1237834296615499</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.1421416310205754</v>
+        <v>0.4173557391239679</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1931652723806148</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01867084411854849</v>
+        <v>0.04247553644818637</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
@@ -6368,46 +6368,46 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0.05826561555414225</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0971841913604659</v>
+        <v>-0.134598138210163</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.07676963708860948</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
         <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.000624890627640859</v>
+        <v>-0.007093524758107107</v>
       </c>
       <c r="CI11" t="n">
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>-0.3061325532497021</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02415425346624179</v>
+        <v>-0.1297606980549161</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.08054271994798416</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1670617519204501</v>
+        <v>-0.3414984320443166</v>
       </c>
       <c r="CR11" t="n">
         <v>-0</v>
@@ -6422,25 +6422,25 @@
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>0.02728733132185802</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.08442577278410282</v>
+        <v>-0.1509163342354331</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.08907718249141554</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.03060412694691152</v>
+        <v>0.0227652766982379</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
@@ -6449,19 +6449,19 @@
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0.3088086672933626</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.1694369247151928</v>
+        <v>-0.5213418263506325</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.01680440786405063</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.02143442896569224</v>
+        <v>0.06216853613195463</v>
       </c>
       <c r="DJ11" t="n">
         <v>0</v>
@@ -6470,28 +6470,28 @@
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>-0.1754732522984578</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.07048752013179313</v>
+        <v>-0.2226355621161783</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.07172615400469576</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.004451247939689456</v>
+        <v>-0.05583095638048067</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6503,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>-0.05755652401285949</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.05996447258024733</v>
+        <v>0.1397478414711541</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0728571480904264</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.04647042807900233</v>
+        <v>-0.1211244249335567</v>
       </c>
       <c r="EB11" t="n">
         <v>0</v>
@@ -6524,139 +6524,139 @@
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>-0.07579577565637186</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.02404804038796577</v>
+        <v>0.19335791219972</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.08312051198105197</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
         <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.07486831714119574</v>
+        <v>0.01535623056011122</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>0</v>
+        <v>-0.03335098049438633</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.1711135921548177</v>
+        <v>-0.1115873081619997</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.07790385484225348</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
         <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.1353914344299607</v>
+        <v>-0.03931680993140869</v>
       </c>
       <c r="ET11" t="n">
         <v>-0</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0.05307678637330294</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.07012923933153412</v>
+        <v>-0.139754193369757</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.09375355833384252</v>
+        <v>-0</v>
       </c>
       <c r="FA11" t="n">
         <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02248644630271712</v>
+        <v>-0.0501612256633138</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>0.1945824355983657</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.08295003163622003</v>
+        <v>-0.08902586162004682</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1451121913007251</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.03922265198411847</v>
+        <v>-0.08871961031104381</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0.003265344563816009</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.123271756293764</v>
+        <v>-0.03363000358762867</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.007569382038812113</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01291540056471392</v>
+        <v>0.01053009293721037</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
         <v>0</v>
@@ -6665,19 +6665,19 @@
         <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0.07931406167625607</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0.01936015334908184</v>
+        <v>-0.1912028072345067</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.1427891287013434</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
         <v>-0</v>
@@ -6689,60 +6689,60 @@
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.6394727265793381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2314413288157833</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1835713737602703</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0005077328456290944</v>
+        <v>-0.2867283245309152</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0.3522750555858268</v>
       </c>
       <c r="H12" t="n">
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.4484784375792149</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2461370385767308</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1260534886756218</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.118105473634836</v>
+        <v>-0.3085273774915624</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0.3103309998831958</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,25 +6751,25 @@
         <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.2111122096653329</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04367994369664448</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.09319540215652269</v>
+        <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1204839296469905</v>
+        <v>0.260498669818286</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0</v>
+        <v>-0.04222317993537852</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -6778,22 +6778,22 @@
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.2368052384134104</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.00323569624669242</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.06463397995007597</v>
+        <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.02107633764538585</v>
+        <v>0.07470035197579998</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0.02747525251334188</v>
       </c>
       <c r="AI12" t="n">
         <v>-0</v>
@@ -6802,52 +6802,52 @@
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.07382749035709109</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.04950003112557419</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.01134831123751116</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.03722570173953553</v>
+        <v>0.01421597102856941</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>-0.08088867344575527</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.7111857861412095</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1431230316464529</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.0278895373689321</v>
+        <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1404057141382065</v>
+        <v>0.01144157846163145</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>-0.194743821901728</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
@@ -6856,28 +6856,28 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.1386630283508359</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.09318080891477482</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.1191925151817834</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.08247547695894134</v>
+        <v>-0.1537017720514165</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0.1719667992132358</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,160 +6886,160 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.129921773323781</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.0906278303860491</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.06660950811952174</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.0967479850066101</v>
+        <v>0.2753612797122582</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0.05320709510504697</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2612426899628142</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.05590632321339022</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.02287743078988675</v>
+        <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.0005017952701625881</v>
+        <v>-0.0256976584708545</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0.05610276921408027</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.1634144912905043</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0.04520143082866873</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.04656989838377033</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.03230383187464816</v>
+        <v>0.04919595272246327</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0.0819156380931783</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.2291046544859701</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.007715908592267004</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.01399820137565071</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.01819483519310252</v>
+        <v>-0.1671749971551101</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>-0.007678939358759736</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.1318684575569194</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0.0447772435767879</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.04090762558533995</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01724173517334329</v>
+        <v>0.04670968884100793</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>0.07954506941689378</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.4164543422767302</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0.01780513332358922</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.0424868757756838</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.1005960109049487</v>
+        <v>0.04491044981547947</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0</v>
+        <v>-0.1382195987126834</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,133 +7048,133 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0</v>
+        <v>-0.07751523479649475</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.06522424278426772</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0.01500762177373793</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.1200016868039156</v>
+        <v>0.06365130329668778</v>
       </c>
       <c r="DS12" t="n">
         <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>-0.01293864051259389</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.1439916073538324</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.08491649187383442</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.04691638695757694</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01261376372242071</v>
+        <v>-0.09670330927506753</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>-0.006568243495610016</v>
       </c>
       <c r="ED12" t="n">
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.05240041749899019</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0.05107437046294151</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.09217897239188746</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.07796716318065752</v>
+        <v>0.09775697819205766</v>
       </c>
       <c r="EK12" t="n">
         <v>-0</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0.1027576022496439</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.06806216159196697</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.009813637399239118</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.02788064824017115</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.01977340697395597</v>
+        <v>0.006981400744815148</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0.01194485847981911</v>
       </c>
       <c r="EV12" t="n">
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.1408571109494271</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0.0393958608185007</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0441423290334995</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.02757323822988133</v>
+        <v>0.04427624392009453</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0.07958314407140828</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
@@ -7183,49 +7183,49 @@
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.04479719748852456</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0.03563419279387318</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.00134607882468238</v>
+        <v>0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.002445585464977154</v>
+        <v>-0.1205907842430766</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0.05932030006412938</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.01015269760119976</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.007540997723331886</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.03380965339523208</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.002895726745637326</v>
+        <v>0.02256102689127081</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0.0001663203915489765</v>
       </c>
       <c r="FW12" t="n">
         <v>0</v>
@@ -7234,129 +7234,129 @@
         <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.1106901193209862</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.02388828733726696</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.01993492504763172</v>
+        <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0.06442879973015084</v>
       </c>
       <c r="GF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.109002510642023</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3140094392309078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0035361844296074</v>
+        <v>-0.3620317104367999</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1741189438111462</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.5441075947901269</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.8208495368911543</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2932155333123017</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03684080799038668</v>
+        <v>-0.3815344216259309</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1803096213987085</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0.4957252327836016</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.343785183382271</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.007734828533663732</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.03441592047809519</v>
+        <v>0.03604885916899599</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.07774423840967928</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>-0.1046669798180174</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.3276670619599004</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.002911682398170419</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0185732710668031</v>
+        <v>-0.08144003468929426</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -7365,25 +7365,25 @@
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01894002588265408</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>-0.02599383779852389</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.1728023585219027</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.06034305340908953</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.072354167981571</v>
+        <v>-0.005978002587623073</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7392,25 +7392,25 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.02562148123679418</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0.03660857206532703</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>1.064637479373003</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1492369269924528</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03116299756263155</v>
+        <v>0.08634485769827283</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
@@ -7419,415 +7419,415 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.1394436063907475</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0.3078297614297999</v>
       </c>
       <c r="BC13" t="n">
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.1780003823063034</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.1038471985506453</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.06001976727039102</v>
+        <v>-0.3603540251150389</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.07968458601294111</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0.2575292020879729</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.1226796082448601</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.06452084417115274</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.06441689743480543</v>
+        <v>0.432846132630344</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.07211239263435502</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>-0.009489365849392245</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.546285728803616</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.08922778921577754</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.008849509620243978</v>
+        <v>0.08227314981920483</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.05530715701938906</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0.1041760068704934</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.2590944111098931</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.0728574196124883</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.002765579288527201</v>
+        <v>0.01560623151484463</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.03210089498638094</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0.1839378920199971</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.3250856545392993</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.02880978714490658</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
         <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.08481286285153528</v>
+        <v>-0.2970223661660355</v>
       </c>
       <c r="CR13" t="n">
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.03739316413756827</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>0.06131974582781816</v>
       </c>
       <c r="CV13" t="n">
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.2241515681933035</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.06752443360228029</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.03021740200140805</v>
+        <v>0.02473182254519969</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.02687615841116559</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>0.1406341338322815</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.5652883986343037</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.03753427330741552</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.01845939927429768</v>
+        <v>0.1323822313163398</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.04619200508046423</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>0.04357367690794176</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0</v>
+        <v>-0.1446952456697684</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0.00770309503576989</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
         <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01744234325772714</v>
+        <v>0.006620924120542991</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.02905220780209069</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0.03017930374928252</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>0.1879251761322843</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.03710375012243032</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.005936130136708138</v>
+        <v>-0.09381227894990062</v>
       </c>
       <c r="EB13" t="n">
         <v>-0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.05441845191461553</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0.0134657610443933</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.03188525121688013</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.07317995613168662</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.04559125391296993</v>
+        <v>0.06467700355726905</v>
       </c>
       <c r="EK13" t="n">
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.06023268735425213</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>0.2407440500675926</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>-0.1636879045420602</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0.003207516573943154</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0357889283721376</v>
+        <v>-0.03115582351661013</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0008316459228181537</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0</v>
+        <v>0.02288997964432253</v>
       </c>
       <c r="EX13" t="n">
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.2604506133485941</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.07393602307089273</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01463181320510241</v>
+        <v>0.005492865132659888</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.03979019234310745</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0.1301566168033032</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.122680146768897</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.06499503782102108</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
         <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02923171058330772</v>
+        <v>-0.1038613188688495</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.01086438255989276</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>-0.1520485817299997</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01495981794070308</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.01227436176505713</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.002759418542499209</v>
+        <v>0.01107967561369109</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0.006626957172814352</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0.05630249728732539</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.2659828494227312</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.02235245636302521</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.02496640145677351</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0.0553870713158484</v>
       </c>
     </row>
     <row r="14">
@@ -7835,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -7862,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -7889,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -7916,10 +7916,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -7943,10 +7943,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -8051,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -8105,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -8159,10 +8159,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -8240,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
         <v>0</v>
@@ -8401,25 +8401,25 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.5263589242471366</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6589546908666387</v>
+        <v>0.6561602907780183</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1320034761965782</v>
+        <v>0.1462611492574238</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9319083474925292</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -8428,28 +8428,28 @@
         <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.4469623166147181</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.6343167855833579</v>
+        <v>0.4752960060020092</v>
       </c>
       <c r="M15" t="n">
         <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08927240844847571</v>
+        <v>0.5022363781143702</v>
       </c>
       <c r="O15" t="n">
-        <v>1.012362400031622</v>
+        <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R15" t="n">
         <v>-0</v>
@@ -8458,22 +8458,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.1772453957995592</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01377267658874883</v>
+        <v>-0.02177110209064688</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.07233291837318905</v>
+        <v>-0.05584199838317818</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2463299352251449</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>-0</v>
@@ -8482,130 +8482,130 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.248185614094744</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.06378168752613203</v>
+        <v>-0.02456346957911471</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.4956163892119602</v>
+        <v>-0.1937193304210485</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.01664820331936536</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>-0.2748260904433181</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.2340331259040334</v>
+        <v>0.0955866649607692</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.1264970860304125</v>
+        <v>0.02093089353460846</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.102099452134365</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
         <v>-0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.6665477772920931</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.3813619935026552</v>
+        <v>0.4128272211552594</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.2069264274864739</v>
+        <v>-0.1544546201947827</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.3650173637451574</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>0.01510141920161883</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.0351522719472348</v>
+        <v>0.2102066447069666</v>
       </c>
       <c r="BF15" t="n">
         <v>-0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.2691860023278622</v>
+        <v>0.5684338243253173</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.3506164046649058</v>
+        <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>-0.1577480301074134</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.09281918397979042</v>
+        <v>0.0842575046735657</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0869199124740721</v>
+        <v>-0.3468793253000507</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.05025672815813221</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -8620,49 +8620,49 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.1960200829614315</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.1578399570884707</v>
+        <v>0.3169478564083854</v>
       </c>
       <c r="BX15" t="n">
         <v>-0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.08748200680717585</v>
+        <v>-0.05198104557020931</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.3627776083205734</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
         <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>0.1217406627379084</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.1376077591296251</v>
+        <v>-0.05553385505954265</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.01451679627490715</v>
+        <v>-0.05840003207354124</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0.1979858879010132</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
         <v>-0</v>
@@ -8674,49 +8674,49 @@
         <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>0.0711566276155803</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0.284003503341189</v>
+        <v>-0.01888796609448625</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.2345185379017577</v>
+        <v>-0.2129079523229254</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.0903342946318438</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
         <v>-0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>0.07697652879253047</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.1190069041931779</v>
+        <v>-0.06853611783316689</v>
       </c>
       <c r="CY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.1004826347729593</v>
+        <v>-0.07306996379440737</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0.1902332479418251</v>
+        <v>-0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -8728,46 +8728,46 @@
         <v>-0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>0.202821078365236</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.1326599293152365</v>
+        <v>0.05982553087285746</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.1509539631652264</v>
+        <v>0.1601148250253166</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.1139066803633779</v>
+        <v>-0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0</v>
+        <v>0.01590764248874078</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.02299132056621757</v>
+        <v>-0.1468291164307829</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.05708414891754411</v>
+        <v>-0.08027537761310356</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.03112158831114744</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8779,28 +8779,28 @@
         <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>0.01492008710118048</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.002556072910688802</v>
+        <v>0.2141407255741934</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.04108646705066264</v>
+        <v>0.03275142293197108</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.01549140134942984</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
         <v>0</v>
@@ -8809,46 +8809,46 @@
         <v>-0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.02751634740164072</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.1394969159120245</v>
+        <v>-0.01088212341903618</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.1510305254202769</v>
+        <v>-0.1320169680259974</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0.2484451040187216</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>0.07524382686824914</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.03078176511870858</v>
+        <v>0.06860221017485242</v>
       </c>
       <c r="ER15" t="n">
         <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.03328456559416512</v>
+        <v>-0.1268866366518944</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0.2890310561863759</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8863,22 +8863,22 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>0.09343948052611313</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.1229161943959961</v>
+        <v>-0.05612614776440268</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.06403182617220121</v>
+        <v>-0.08105116936126079</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0.1571984210639524</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
         <v>-0</v>
@@ -8887,22 +8887,22 @@
         <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.1519325408030751</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.1419439587850097</v>
+        <v>0.1905831366988929</v>
       </c>
       <c r="FJ15" t="n">
         <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.01301390781295191</v>
+        <v>0.1886199290958864</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.02074821324747946</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
         <v>-0</v>
@@ -8914,28 +8914,28 @@
         <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>-1.264573956750177e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.002095549169714328</v>
+        <v>-0.0773749085844959</v>
       </c>
       <c r="FS15" t="n">
         <v>0</v>
       </c>
       <c r="FT15" t="n">
-        <v>3.17859769559606e-05</v>
+        <v>0.006970377742108164</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0.08106885485960151</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>0.003959591714771491</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.03159204656767206</v>
+        <v>0.07444906610766343</v>
       </c>
       <c r="GB15" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.07665385397972786</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8965,141 +8965,141 @@
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.4193913524864991</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1435771147426828</v>
+        <v>0.05735580291277353</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1697110847463152</v>
+        <v>1.035147378343664</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3006206600749798</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.3519979926276593</v>
       </c>
       <c r="L16" t="n">
         <v>-0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2631706073433956</v>
+        <v>-0.09719004825977103</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1530290441513623</v>
+        <v>0.7970956499911807</v>
       </c>
       <c r="P16" t="n">
         <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3012046217538473</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-0.03687451535882046</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
         <v>-0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08563410148630009</v>
+        <v>0.1586308321541925</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.007695847927246843</v>
+        <v>0.0933737787487529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1310886427205286</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>-0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0.05761432983598488</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0398259480532021</v>
+        <v>0.0562873858139684</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.02018100072321656</v>
+        <v>0.05388466812728854</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.041177733435364</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0.02929476488184719</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.1159675097563689</v>
+        <v>-0.01413938302415433</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.003483862401941032</v>
+        <v>0.1717182657779255</v>
       </c>
       <c r="AQ16" t="n">
         <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.02542227890359142</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>-0</v>
@@ -9108,25 +9108,25 @@
         <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0.3856684663823999</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
         <v>-0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.04816744987168673</v>
+        <v>0.2701084146152701</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.0846873349670364</v>
+        <v>0.7171740509332811</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.1449953658096799</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
         <v>-0</v>
@@ -9135,25 +9135,25 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>-0.1219493344531752</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.1268559951334473</v>
+        <v>0.04847327529219924</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.07112880809542826</v>
+        <v>0.1385884201723515</v>
       </c>
       <c r="BI16" t="n">
         <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.07392102782943975</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -9162,25 +9162,25 @@
         <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0</v>
+        <v>-0.1830357960083081</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
         <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.007901517390511972</v>
+        <v>-0.06522403184129982</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.01711071684023734</v>
+        <v>0.06617832325918234</v>
       </c>
       <c r="BR16" t="n">
         <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.02743512328331238</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
@@ -9189,7 +9189,7 @@
         <v>-0</v>
       </c>
       <c r="BV16" t="n">
-        <v>-0</v>
+        <v>-0.146696166919964</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -9198,25 +9198,25 @@
         <v>-0</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.01472651494192621</v>
+        <v>0.09210515393069182</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0.07152249379231798</v>
+        <v>0.3471341093134395</v>
       </c>
       <c r="CA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1277842213259072</v>
+        <v>0</v>
       </c>
       <c r="CC16" t="n">
         <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>0.1194684396780524</v>
       </c>
       <c r="CF16" t="n">
         <v>-0</v>
@@ -9225,97 +9225,97 @@
         <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.03913952980347882</v>
+        <v>-0.01869627851348746</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.04009934210312963</v>
+        <v>-0.160687091430458</v>
       </c>
       <c r="CJ16" t="n">
         <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>-0.05456025406445746</v>
+        <v>-0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0.005543524447955893</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.05121170200625832</v>
+        <v>-0.2375529704357506</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0.02701385685188871</v>
+        <v>0.03067271553226303</v>
       </c>
       <c r="CS16" t="n">
         <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.02469922475183479</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>0.09086067261758959</v>
       </c>
       <c r="CX16" t="n">
         <v>0</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.03944918057263956</v>
+        <v>-0.01162367555539271</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.05271655574112065</v>
+        <v>-0.1696518128706331</v>
       </c>
       <c r="DB16" t="n">
         <v>-0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0.07594728087600999</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
-        <v>-0</v>
+        <v>0.1257059367863718</v>
       </c>
       <c r="DG16" t="n">
         <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.05482959546495363</v>
+        <v>-0.2932217290319694</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.01192693073615053</v>
+        <v>0.007581230313567193</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.0005743404240911786</v>
+        <v>-0</v>
       </c>
       <c r="DM16" t="n">
         <v>-0</v>
@@ -9324,34 +9324,34 @@
         <v>0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0</v>
+        <v>0.02834621083858908</v>
       </c>
       <c r="DP16" t="n">
         <v>-0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.07241569357535751</v>
+        <v>-0.05154513664228862</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.005427345557854396</v>
+        <v>-0.06521450546557701</v>
       </c>
       <c r="DT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.01432118962848062</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW16" t="n">
         <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>0.09323359104688517</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
@@ -9360,52 +9360,52 @@
         <v>0</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0280234112555706</v>
+        <v>-0.07898271216613939</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0.001217583420080835</v>
+        <v>-0.1188386473744737</v>
       </c>
       <c r="EC16" t="n">
         <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>-0.02689515896838039</v>
+        <v>-0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>0.0637277564739325</v>
       </c>
       <c r="EH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
         <v>-0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.02798901727005772</v>
+        <v>-0.02096748542565594</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.06921609372719412</v>
+        <v>-0.1142137547457192</v>
       </c>
       <c r="EL16" t="n">
         <v>0</v>
       </c>
       <c r="EM16" t="n">
-        <v>-0.02512500719310567</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
         <v>-0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0.07538477723198488</v>
       </c>
       <c r="EQ16" t="n">
         <v>0</v>
@@ -9414,70 +9414,70 @@
         <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.02733663701870108</v>
+        <v>-0.05016986799317925</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.009246740105658225</v>
+        <v>-0.04148253538983084</v>
       </c>
       <c r="EU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.06514662038443192</v>
+        <v>-0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>0.08269910872492069</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA16" t="n">
         <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.04247911149685107</v>
+        <v>-0.03558840908236152</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.04768531273165751</v>
+        <v>-0.1572501519018988</v>
       </c>
       <c r="FD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE16" t="n">
-        <v>-0.07608310703755652</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>-0.007814731657287362</v>
       </c>
       <c r="FI16" t="n">
         <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.02430435994361224</v>
+        <v>-0.04383720571030961</v>
       </c>
       <c r="FL16" t="n">
-        <v>-0.01085975765993033</v>
+        <v>-0.1399684100677052</v>
       </c>
       <c r="FM16" t="n">
         <v>-0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.04007017549297577</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>-0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>-0.003516116555176326</v>
       </c>
       <c r="FR16" t="n">
         <v>-0</v>
@@ -9495,28 +9495,28 @@
         <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.01015073566657511</v>
+        <v>-0.08088923460527922</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.02295421634193684</v>
+        <v>-0.1594481572666532</v>
       </c>
       <c r="FV16" t="n">
         <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>-0.09896523378224409</v>
+        <v>0</v>
       </c>
       <c r="FX16" t="n">
         <v>-0</v>
       </c>
       <c r="FY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0.04086205755550364</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB16" t="n">
         <v>0</v>
@@ -9525,16 +9525,16 @@
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0.0302507071734919</v>
+        <v>0.07005114483952433</v>
       </c>
       <c r="GE16" t="n">
         <v>0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0.03100947982743183</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
